--- a/Processes/RPATask1-ChartStringProformaDetail/Data/ConfigPrd.xlsx
+++ b/Processes/RPATask1-ChartStringProformaDetail/Data/ConfigPrd.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\RPATask1-ChartStringProformaDetail\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\RpaUiPathProcess\Processes\RPATask1-ChartStringProformaDetail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Exchange" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -174,13 +175,52 @@
   </si>
   <si>
     <t>PRD</t>
+  </si>
+  <si>
+    <t>Proforma-PRD-Exchange</t>
+  </si>
+  <si>
+    <t>ExchangeCreds</t>
+  </si>
+  <si>
+    <t>InboxFolder</t>
+  </si>
+  <si>
+    <t>OutboxFolder</t>
+  </si>
+  <si>
+    <t>ExceptionsFolder</t>
+  </si>
+  <si>
+    <t>JobRecipients</t>
+  </si>
+  <si>
+    <t>WeekRecipients</t>
+  </si>
+  <si>
+    <t>MonthRecipients</t>
+  </si>
+  <si>
+    <t>Robot In</t>
+  </si>
+  <si>
+    <t>Robot Out</t>
+  </si>
+  <si>
+    <t>Robot Exception</t>
+  </si>
+  <si>
+    <t>s.janetzki@uq.edu.au</t>
+  </si>
+  <si>
+    <t>Credential</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,6 +231,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -198,16 +239,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF54646C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9FAFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,16 +275,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2795,11 +2870,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="65.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2810,9 +2889,11 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2836,7 +2917,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3837,5 +3925,89 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7:B8" r:id="rId2" display="s.janetzki@uq.edu.au"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>